--- a/lib/tests_30.xlsx
+++ b/lib/tests_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishikawatadashi/RubymineProjects/examin/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishikawatadashi/RubymineProjects/examin_rails/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A20AA-F9B5-AA43-BCB2-0CA6BD359539}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA6F9F-FA80-714A-AB76-4B97EECA4FD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{B5B7992C-F6AD-854E-97C9-6BC6B6E5C3A9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B5B7992C-F6AD-854E-97C9-6BC6B6E5C3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト_30" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -59,196 +59,195 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@problem.title}</t>
+    <t>@questions[0][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[0][:sentence]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[0].sentence}</t>
+    <t>@questions[0][:correct]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[2].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[3].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[4].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[5].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[6].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[7].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[1].sentence}</t>
+    <t>@questions[1][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[1][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[2][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[2][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[3][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[3][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[4][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[4][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[5][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[5][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[6][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[6][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[7][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[7][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[8][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[8][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[9][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[9][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[10][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[10][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[11][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[11][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[12][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[12][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[13][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[13][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[14][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[14][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[15][:sentence]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[8].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[9].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[10].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[11].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[12].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[13].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[14].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[15].sentence}</t>
+    <t>@questions[15][:correct]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#{@questions[16].sentence}</t>
+    <t>@questions[16][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[16][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[17][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[17][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[18][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[18][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[19][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[19][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[20][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[20][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[21][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[21][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[22][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[22][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[23][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[23][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[24][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[24][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[25][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[25][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[26][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[26][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[27][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[27][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[28][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[28][:correct]</t>
+  </si>
+  <si>
+    <t>@questions[29][:sentence]</t>
+  </si>
+  <si>
+    <t>@questions[29][:correct]</t>
+  </si>
+  <si>
+    <t>@problem[:title]</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[17].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[18].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[19].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[20].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[21].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[22].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[23].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[24].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[25].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[26].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[27].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[28].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[29].sentence}</t>
-  </si>
-  <si>
-    <t>#{@questions[0].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[1].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[2].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[3].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[4].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[5].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[6].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[7].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[8].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[9].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[10].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[11].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[12].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[13].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[14].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[15].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[16].correct}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#{@questions[17].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[18].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[19].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[20].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[21].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[22].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[23].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[24].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[25].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[26].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[27].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[28].correct}</t>
-  </si>
-  <si>
-    <t>#{@questions[29].correct}</t>
   </si>
 </sst>
 </file>
@@ -335,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -367,19 +366,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -399,19 +385,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -427,6 +404,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,7 +733,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -764,38 +750,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1"/>
     <row r="3" spans="1:9" ht="25" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -803,286 +789,286 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="46" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="10"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="46" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="46" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="46" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="46" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="46" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>23</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="46" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="46" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="46" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>26</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="46" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="10"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="46" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>28</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="46" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>29</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>33</v>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="46" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>30</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>34</v>
+      <c r="G18" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1"/>
     <row r="20" spans="1:9" ht="30" customHeight="1"/>
@@ -1112,7 +1098,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="112" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1129,38 +1115,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1"/>
     <row r="3" spans="1:9" ht="25" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1168,344 +1154,344 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5" t="s">
-        <v>50</v>
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="46" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="5" t="s">
-        <v>51</v>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="46" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="5" t="s">
-        <v>52</v>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="46" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="5" t="s">
-        <v>53</v>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="46" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="5" t="s">
-        <v>54</v>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="46" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="5" t="s">
-        <v>55</v>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="46" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="5" t="s">
-        <v>56</v>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="46" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>23</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="5" t="s">
-        <v>57</v>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="5" t="s">
-        <v>58</v>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="46" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5" t="s">
-        <v>59</v>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="46" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>26</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5" t="s">
-        <v>60</v>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="46" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>27</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5" t="s">
-        <v>61</v>
+      <c r="G15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>28</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="5" t="s">
-        <v>62</v>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>29</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5" t="s">
-        <v>63</v>
+      <c r="G17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>30</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5" t="s">
+      <c r="G18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="4" t="s">
         <v>64</v>
       </c>
     </row>
